--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Specht/Friedrich_Specht.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Specht/Friedrich_Specht.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Specht est un illustrateur naturaliste wurtembergeois, né le 6 mai 1839 à Lauffen am Neckar et mort le 12 juin 1909 à Stuttgart.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit les cours à l’école des beaux-arts de Stuttgart et se spécialise dans la peinture de paysage et d’animaux. Il illustre un grand nombre d’ouvrages d’histoire naturelle. Il fut le principal illustrateur de la première édition de la Vie des animaux (Tierleben) d’Alfred Edmund Brehm (1829-1884).
 Ses frères sont le graveur sur bois Carl Gottlob Specht et le peintre animalier August Specht (1849-1923).
